--- a/Data Pemain.xlsx
+++ b/Data Pemain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PraktekKotlin\Recyclerview2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A85BF5-7AA3-47AE-A31C-0D92BEB2794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55C1220-6141-421B-B883-EF119ECD74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DCF5F3ED-7AF4-4311-8E02-D06EBADE1262}"/>
+    <workbookView xWindow="7785" yWindow="1695" windowWidth="12600" windowHeight="7875" xr2:uid="{DCF5F3ED-7AF4-4311-8E02-D06EBADE1262}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
